--- a/planitTestingFramework/TestData/TestData.xlsx
+++ b/planitTestingFramework/TestData/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Source</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>abhibus.com - India's Fastest Online bus ticket booking site</t>
+  </si>
+  <si>
+    <t>Bus Operator</t>
+  </si>
+  <si>
+    <t>APSRTC</t>
   </si>
 </sst>
 </file>
@@ -77,7 +83,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -100,17 +106,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -119,8 +114,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,9 +430,10 @@
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
     <col min="4" max="4" width="21.28515625" customWidth="1"/>
     <col min="5" max="5" width="55.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -453,8 +449,11 @@
       <c r="E1" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="F1" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -469,6 +468,9 @@
       </c>
       <c r="E2" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
